--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ValidationTypeCS.xlsx
+++ b/output/CodeSystem-ValidationTypeCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
